--- a/downloads & upload/template_upload_pengguna.xlsx
+++ b/downloads & upload/template_upload_pengguna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File Coding\RPL-SMKN-8-MALANG\PKL_24-25\PlayWright\Testing-Website-Masook\downloads &amp; upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA478E93-424E-42AC-A9DE-4111408FD8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD2F13D-E279-4219-8EAF-E304159F020E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,10 +115,10 @@
     <t>dummytest@gmail.com</t>
   </si>
   <si>
-    <t>dummytesting</t>
-  </si>
-  <si>
-    <t>dummy testing</t>
+    <t>dummy test</t>
+  </si>
+  <si>
+    <t>akuntestdummy</t>
   </si>
 </sst>
 </file>
@@ -597,20 +597,20 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9.08984375" style="2"/>
-    <col min="2" max="2" width="4.08984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.08984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18" style="4" customWidth="1"/>
-    <col min="9" max="9" width="24.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="1024" width="9.08984375" style="2"/>
   </cols>
   <sheetData>
@@ -697,13 +697,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="9">
         <v>113333</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>15</v>
